--- a/media/sgs_plus_download_fiz.xlsx
+++ b/media/sgs_plus_download_fiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103036D-37EA-EE40-B737-8C39A1344B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785B7A96-D469-AD42-BEB0-6D0D5A4AEFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{78C4F55A-BC32-4549-911D-8FE6E9D6D2A9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{78C4F55A-BC32-4549-911D-8FE6E9D6D2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -456,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,6 +703,8 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34987603-DF57-4A54-8D02-197A8A1AA1E1}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2190,6 +2199,45 @@
       <c r="N66" s="80"/>
       <c r="O66" s="81"/>
     </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="85"/>
+      <c r="N67" s="85"/>
+      <c r="O67" s="85"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="85"/>
+      <c r="N68" s="85"/>
+      <c r="O68" s="85"/>
+    </row>
+    <row r="69" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:N1"/>
